--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11160" windowWidth="20730" xWindow="20370" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7575" windowWidth="15375" xWindow="5295" yWindow="4515"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" state="visible" r:id="rId1"/>
@@ -40,7 +40,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -49,12 +49,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000ff00"/>
+        <fgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000ff00"/>
       </patternFill>
     </fill>
   </fills>
@@ -85,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -103,6 +108,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -417,7 +425,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -426,8 +434,8 @@
     <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="13.85546875"/>
     <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="33"/>
     <col customWidth="1" max="4" min="4" style="2" width="22.85546875"/>
-    <col customWidth="1" max="6" min="5" style="2" width="9.140625"/>
-    <col customWidth="1" max="16384" min="7" style="2" width="9.140625"/>
+    <col customWidth="1" max="8" min="5" style="2" width="9.140625"/>
+    <col customWidth="1" max="16384" min="9" style="2" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -455,42 +463,46 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>test_invalid_SignIn</t>
+          <t>test_valid_SignIn</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>Admin1</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>admin123</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>test_valid_SignIn</t>
+          <t>test_invalid_SignIn</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
+          <t>admin111</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
           <t>admin1</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>admin1</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="n"/>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,48 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\PycharmProjects\Selenium_Framework\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAF5E55-DA7D-4006-AED0-1282CBB5759F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7575" windowWidth="15375" xWindow="5295" yWindow="4515"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginPage" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Employee" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="Shop" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Header-Info</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>test_valid_SignIn</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Login - My Store</t>
+  </si>
+  <si>
+    <t>Firstname lastname</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>test_invalid_SignIn</t>
+  </si>
+  <si>
+    <t>abcd@gmail.com</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>test_search_stock_casual_dress</t>
+  </si>
+  <si>
+    <t>Casual Dresses - My Store</t>
+  </si>
+  <si>
+    <t>CASUAL DRESSES</t>
+  </si>
+  <si>
+    <t>$26.00</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>test_add_product</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,12 +122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000ff00"/>
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -88,36 +151,41 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -417,175 +485,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="27.140625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="13.85546875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="33"/>
-    <col customWidth="1" max="4" min="4" style="2" width="22.85546875"/>
-    <col customWidth="1" max="8" min="5" style="2" width="9.140625"/>
-    <col customWidth="1" max="16384" min="9" style="2" width="9.140625"/>
+    <col min="1" max="1" width="27.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="33" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="1" customWidth="1"/>
+    <col min="7" max="19" width="9.140625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>TC_ID</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>test_valid_SignIn</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>test_invalid_SignIn</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>admin111</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>admin1</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="4" min="1" width="14"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22.5" r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>TC_ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>DEMO_101</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>adminR</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n"/>
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row customHeight="1" ht="15" r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>DEMO_102</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>admin1</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>admin1</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n"/>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\PycharmProjects\Selenium_Framework\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohit\PycharmProjects\Python_Selenium_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAF5E55-DA7D-4006-AED0-1282CBB5759F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA099594-CD1F-4CAA-876A-E55140F835D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
     <t>Login - My Store</t>
   </si>
   <si>
-    <t>Firstname lastname</t>
+    <t>rohit ratnakumar</t>
   </si>
   <si>
     <t>Pass</t>
@@ -117,12 +117,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -168,10 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,8 +499,8 @@
     <col min="3" max="3" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="33" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" style="1" customWidth="1"/>
-    <col min="7" max="19" width="9.140625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="21" width="9.140625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -539,7 +539,7 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -557,7 +557,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -578,7 +578,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,7 @@
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -636,7 +636,7 @@
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
